--- a/scripts/BCVs/Emission_Summary_Tables_BCVs.xlsx
+++ b/scripts/BCVs/Emission_Summary_Tables_BCVs.xlsx
@@ -522,16 +522,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>32.3708267255156</v>
+        <v>31.1740425021298</v>
       </c>
       <c r="C2" t="n">
-        <v>24.9842088220416</v>
+        <v>25.073091608331</v>
       </c>
       <c r="D2" t="n">
-        <v>28832178.6838953</v>
+        <v>38552777.0359423</v>
       </c>
       <c r="E2" t="n">
-        <v>1068522.9</v>
+        <v>1510697.9</v>
       </c>
       <c r="F2" t="n">
         <v>0.118631745709344</v>
@@ -545,16 +545,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>30.3010414948602</v>
+        <v>29.2381584370371</v>
       </c>
       <c r="C3" t="n">
-        <v>11.5172559777778</v>
+        <v>11.7453521569918</v>
       </c>
       <c r="D3" t="n">
-        <v>160700731.308078</v>
+        <v>203335335.946631</v>
       </c>
       <c r="E3" t="n">
-        <v>5859504.84453057</v>
+        <v>7354177.40541659</v>
       </c>
       <c r="F3" t="n">
         <v>0.881368254290656</v>
@@ -638,16 +638,16 @@
         <v>16348881</v>
       </c>
       <c r="D2" t="n">
-        <v>12.2426460376785</v>
+        <v>11.2687899344813</v>
       </c>
       <c r="E2" t="n">
-        <v>19.845170325119</v>
+        <v>17.2539414174961</v>
       </c>
       <c r="F2" t="n">
-        <v>200292.903874737</v>
+        <v>205664.236123327</v>
       </c>
       <c r="G2" t="n">
-        <v>22653.7</v>
+        <v>24434.7</v>
       </c>
       <c r="H2" t="n">
         <v>0.00130108492975356</v>
@@ -667,16 +667,16 @@
         <v>68822806</v>
       </c>
       <c r="D3" t="n">
-        <v>52.4458192280683</v>
+        <v>50.0828325016397</v>
       </c>
       <c r="E3" t="n">
-        <v>13.1644972899609</v>
+        <v>13.1181587400697</v>
       </c>
       <c r="F3" t="n">
-        <v>882069.914516311</v>
+        <v>970773.99508996</v>
       </c>
       <c r="G3" t="n">
-        <v>20221.3</v>
+        <v>23066.3</v>
       </c>
       <c r="H3" t="n">
         <v>0.0054770914113298</v>
@@ -696,16 +696,16 @@
         <v>46473250</v>
       </c>
       <c r="D4" t="n">
-        <v>40.0395304038422</v>
+        <v>44.9757661422805</v>
       </c>
       <c r="E4" t="n">
-        <v>20.4996903347562</v>
+        <v>10.0568192586575</v>
       </c>
       <c r="F4" t="n">
-        <v>86395.1197457009</v>
+        <v>174525.267952163</v>
       </c>
       <c r="G4" t="n">
-        <v>2562.3</v>
+        <v>4169.1</v>
       </c>
       <c r="H4" t="n">
         <v>0.00369845772390598</v>
@@ -725,16 +725,16 @@
         <v>833695520</v>
       </c>
       <c r="D5" t="n">
-        <v>31.3524767515294</v>
+        <v>31.6406325220289</v>
       </c>
       <c r="E5" t="n">
-        <v>18.3468803554231</v>
+        <v>17.2376669353606</v>
       </c>
       <c r="F5" t="n">
-        <v>11666723.2325347</v>
+        <v>14526843.630946</v>
       </c>
       <c r="G5" t="n">
-        <v>412764.8</v>
+        <v>537533.1</v>
       </c>
       <c r="H5" t="n">
         <v>0.0663475792058832</v>
@@ -754,16 +754,16 @@
         <v>205553175</v>
       </c>
       <c r="D6" t="n">
-        <v>42.4429234849082</v>
+        <v>42.1094867534904</v>
       </c>
       <c r="E6" t="n">
-        <v>25.2702658837379</v>
+        <v>24.976480564223</v>
       </c>
       <c r="F6" t="n">
-        <v>7498341.07853999</v>
+        <v>8740977.32116545</v>
       </c>
       <c r="G6" t="n">
-        <v>186343.4</v>
+        <v>220328.3</v>
       </c>
       <c r="H6" t="n">
         <v>0.0163584369019199</v>
@@ -783,16 +783,16 @@
         <v>495380702</v>
       </c>
       <c r="D7" t="n">
-        <v>43.7778672504673</v>
+        <v>42.5259682285672</v>
       </c>
       <c r="E7" t="n">
-        <v>21.6996012140479</v>
+        <v>22.8622725065021</v>
       </c>
       <c r="F7" t="n">
-        <v>10237739.6265872</v>
+        <v>13998001.0597892</v>
       </c>
       <c r="G7" t="n">
-        <v>274579.7</v>
+        <v>377700.05</v>
       </c>
       <c r="H7" t="n">
         <v>0.0394236379763814</v>
@@ -812,16 +812,16 @@
         <v>5568329881</v>
       </c>
       <c r="D8" t="n">
-        <v>29.9128359223976</v>
+        <v>29.9835147791031</v>
       </c>
       <c r="E8" t="n">
-        <v>8.56529909536138</v>
+        <v>8.54865250436664</v>
       </c>
       <c r="F8" t="n">
-        <v>72538439.6154319</v>
+        <v>77001506.2120405</v>
       </c>
       <c r="G8" t="n">
-        <v>2543673.26666667</v>
+        <v>2653582.76666667</v>
       </c>
       <c r="H8" t="n">
         <v>0.443141649392734</v>
@@ -841,16 +841,16 @@
         <v>5244528442</v>
       </c>
       <c r="D9" t="n">
-        <v>30.0867973676494</v>
+        <v>27.8980917926342</v>
       </c>
       <c r="E9" t="n">
-        <v>17.6269116062525</v>
+        <v>16.4361182164937</v>
       </c>
       <c r="F9" t="n">
-        <v>86422908.5007432</v>
+        <v>125587174.914315</v>
       </c>
       <c r="G9" t="n">
-        <v>3465229.2778639</v>
+        <v>5007661.18874992</v>
       </c>
       <c r="H9" t="n">
         <v>0.417372719242994</v>
@@ -869,17 +869,17 @@
       <c r="C10" t="n">
         <v>86442907</v>
       </c>
-      <c r="D10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NUM!</v>
+      <c r="D10" t="n">
+        <v>31.5915156989681</v>
+      </c>
+      <c r="E10" t="n">
+        <v>55.2356405976494</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>682646.345151352</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>16399.8</v>
       </c>
       <c r="H10" t="n">
         <v>0.00687934321509763</v>
@@ -957,16 +957,16 @@
         <v>23</v>
       </c>
       <c r="B2" t="n">
-        <v>30.2393868866482</v>
+        <v>30.6887468485958</v>
       </c>
       <c r="C2" t="n">
-        <v>27.8091524821005</v>
+        <v>28.6841193078395</v>
       </c>
       <c r="D2" t="n">
-        <v>882891.058875084</v>
+        <v>997123.177363236</v>
       </c>
       <c r="E2" t="n">
-        <v>31860.8</v>
+        <v>34399.2</v>
       </c>
       <c r="F2" t="n">
         <v>0.0017355094391759</v>
@@ -980,16 +980,16 @@
         <v>24</v>
       </c>
       <c r="B3" t="n">
-        <v>11.8936318621074</v>
+        <v>8.49545133007669</v>
       </c>
       <c r="C3" t="n">
-        <v>1.90461700688044</v>
+        <v>1.48912741787484</v>
       </c>
       <c r="D3" t="n">
         <v>7359.33907468279</v>
       </c>
       <c r="E3" t="n">
-        <v>677.3</v>
+        <v>946.4</v>
       </c>
       <c r="F3" t="n">
         <v>0.000280236586224392</v>
@@ -1002,14 +1002,14 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C4" t="e">
-        <v>#NUM!</v>
+      <c r="B4" t="n">
+        <v>10.0449697287979</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0706069500638886</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1034.63188206618</v>
       </c>
       <c r="E4" t="n">
         <v>103</v>
@@ -1026,16 +1026,16 @@
         <v>26</v>
       </c>
       <c r="B5" t="n">
-        <v>19.7918571969593</v>
+        <v>18.1018079911063</v>
       </c>
       <c r="C5" t="n">
-        <v>22.2606076367126</v>
+        <v>16.206558219174</v>
       </c>
       <c r="D5" t="n">
-        <v>89424.0886967639</v>
+        <v>421097.377243524</v>
       </c>
       <c r="E5" t="n">
-        <v>4758.6</v>
+        <v>28103.3</v>
       </c>
       <c r="F5" t="n">
         <v>0.00372044135677604</v>
@@ -1049,16 +1049,16 @@
         <v>27</v>
       </c>
       <c r="B6" t="n">
-        <v>46.5472625884211</v>
+        <v>43.3021765398428</v>
       </c>
       <c r="C6" t="n">
-        <v>21.2532889140574</v>
+        <v>20.4499759720562</v>
       </c>
       <c r="D6" t="n">
-        <v>1188642.24565498</v>
+        <v>1770987.29589545</v>
       </c>
       <c r="E6" t="n">
-        <v>31970.1</v>
+        <v>49771.6</v>
       </c>
       <c r="F6" t="n">
         <v>0.00648497234248935</v>
@@ -1072,16 +1072,16 @@
         <v>28</v>
       </c>
       <c r="B7" t="n">
-        <v>51.5360857049658</v>
+        <v>51.2223443255266</v>
       </c>
       <c r="C7" t="n">
-        <v>29.9451986960871</v>
+        <v>30.1455220976286</v>
       </c>
       <c r="D7" t="n">
-        <v>4759611.59312635</v>
+        <v>5456101.58734928</v>
       </c>
       <c r="E7" t="n">
-        <v>119832</v>
+        <v>135325.1</v>
       </c>
       <c r="F7" t="n">
         <v>0.0134484198626081</v>
@@ -1095,16 +1095,16 @@
         <v>29</v>
       </c>
       <c r="B8" t="n">
-        <v>30.3462929007278</v>
+        <v>30.2215928566037</v>
       </c>
       <c r="C8" t="n">
-        <v>17.1418015889126</v>
+        <v>18.128896826546</v>
       </c>
       <c r="D8" t="n">
-        <v>17068030.3682881</v>
+        <v>27448312.8680792</v>
       </c>
       <c r="E8" t="n">
-        <v>635488.118841213</v>
+        <v>910585.972945463</v>
       </c>
       <c r="F8" t="n">
         <v>0.0854670601859905</v>
@@ -1118,16 +1118,16 @@
         <v>30</v>
       </c>
       <c r="B9" t="n">
-        <v>13.0919421212533</v>
+        <v>13.3820189364948</v>
       </c>
       <c r="C9" t="n">
-        <v>20.5331291934612</v>
+        <v>20.5360322637661</v>
       </c>
       <c r="D9" t="n">
-        <v>186756.305249226</v>
+        <v>298061.638840485</v>
       </c>
       <c r="E9" t="n">
-        <v>17629.2</v>
+        <v>22122</v>
       </c>
       <c r="F9" t="n">
         <v>0.00215836870041204</v>
@@ -1141,16 +1141,16 @@
         <v>31</v>
       </c>
       <c r="B10" t="n">
-        <v>18.1786255754444</v>
+        <v>18.1887627204545</v>
       </c>
       <c r="C10" t="n">
-        <v>29.4962334470736</v>
+        <v>27.8982954281741</v>
       </c>
       <c r="D10" t="n">
-        <v>539108.754502737</v>
+        <v>1076504.24605677</v>
       </c>
       <c r="E10" t="n">
-        <v>35711</v>
+        <v>72591.2</v>
       </c>
       <c r="F10" t="n">
         <v>0.00212057194390208</v>
@@ -1164,16 +1164,16 @@
         <v>32</v>
       </c>
       <c r="B11" t="n">
-        <v>28.015794417783</v>
+        <v>25.7168533412269</v>
       </c>
       <c r="C11" t="n">
-        <v>29.500782855665</v>
+        <v>54.329941010399</v>
       </c>
       <c r="D11" t="n">
-        <v>263227.570224085</v>
+        <v>618159.472828936</v>
       </c>
       <c r="E11" t="n">
-        <v>9703.1</v>
+        <v>34457.7</v>
       </c>
       <c r="F11" t="n">
         <v>0.000856936313434755</v>
@@ -1187,16 +1187,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="n">
-        <v>30.9369029821677</v>
+        <v>28.4023259652032</v>
       </c>
       <c r="C12" t="n">
-        <v>24.3448466039549</v>
+        <v>26.0600005364141</v>
       </c>
       <c r="D12" t="n">
-        <v>2041628.71097939</v>
+        <v>2710933.77721458</v>
       </c>
       <c r="E12" t="n">
-        <v>100412</v>
+        <v>140137.4</v>
       </c>
       <c r="F12" t="n">
         <v>0.00679600942790526</v>
@@ -1210,16 +1210,16 @@
         <v>34</v>
       </c>
       <c r="B13" t="n">
-        <v>31.4827615536186</v>
+        <v>29.5451621329431</v>
       </c>
       <c r="C13" t="n">
-        <v>71.679235978975</v>
+        <v>71.4125103676426</v>
       </c>
       <c r="D13" t="n">
-        <v>7281879.8965665</v>
+        <v>10132710.5243827</v>
       </c>
       <c r="E13" t="n">
-        <v>296674.7</v>
+        <v>443751.3</v>
       </c>
       <c r="F13" t="n">
         <v>0.0124423634399944</v>
@@ -1233,16 +1233,16 @@
         <v>35</v>
       </c>
       <c r="B14" t="n">
-        <v>43.7961666345577</v>
+        <v>44.9162241720794</v>
       </c>
       <c r="C14" t="n">
-        <v>12.8880056750231</v>
+        <v>14.7063941580209</v>
       </c>
       <c r="D14" t="n">
-        <v>828140.835254954</v>
+        <v>1098781.87966982</v>
       </c>
       <c r="E14" t="n">
-        <v>20795.8807692308</v>
+        <v>25291.6807692308</v>
       </c>
       <c r="F14" t="n">
         <v>0.00407522637854394</v>
@@ -1256,16 +1256,16 @@
         <v>36</v>
       </c>
       <c r="B15" t="n">
-        <v>31.2945048679468</v>
+        <v>30.5387316556469</v>
       </c>
       <c r="C15" t="n">
-        <v>10.5206368114797</v>
+        <v>11.8984611765817</v>
       </c>
       <c r="D15" t="n">
-        <v>12800092.1546898</v>
+        <v>16771354.7684286</v>
       </c>
       <c r="E15" t="n">
-        <v>489453.79766003</v>
+        <v>624182.920631397</v>
       </c>
       <c r="F15" t="n">
         <v>0.0861006532879897</v>
@@ -1279,16 +1279,16 @@
         <v>37</v>
       </c>
       <c r="B16" t="n">
-        <v>30.9187546552604</v>
+        <v>32.2576913596962</v>
       </c>
       <c r="C16" t="n">
-        <v>9.15368316929589</v>
+        <v>18.5197941868849</v>
       </c>
       <c r="D16" t="n">
-        <v>1299281.38076403</v>
+        <v>2722515.2392099</v>
       </c>
       <c r="E16" t="n">
-        <v>50559.8533700377</v>
+        <v>97871.0533700377</v>
       </c>
       <c r="F16" t="n">
         <v>0.00900548179616995</v>
@@ -1325,16 +1325,16 @@
         <v>39</v>
       </c>
       <c r="B18" t="n">
-        <v>26.3650612043433</v>
+        <v>24.4165750326919</v>
       </c>
       <c r="C18" t="n">
-        <v>2.32658352418926</v>
+        <v>2.20603989970534</v>
       </c>
       <c r="D18" t="n">
-        <v>512948.13260573</v>
+        <v>591363.685278656</v>
       </c>
       <c r="E18" t="n">
-        <v>23729.3</v>
+        <v>59502</v>
       </c>
       <c r="F18" t="n">
         <v>0.0147015011814703</v>
@@ -1371,16 +1371,16 @@
         <v>41</v>
       </c>
       <c r="B20" t="n">
-        <v>23.1868558171272</v>
+        <v>24.5337195904257</v>
       </c>
       <c r="C20" t="n">
-        <v>2.24192817102542</v>
+        <v>2.31060572419714</v>
       </c>
       <c r="D20" t="n">
-        <v>213674.466579806</v>
+        <v>274183.744733165</v>
       </c>
       <c r="E20" t="n">
-        <v>11821.9</v>
+        <v>13101.1</v>
       </c>
       <c r="F20" t="n">
         <v>0.00918297084063439</v>
@@ -1394,16 +1394,16 @@
         <v>42</v>
       </c>
       <c r="B21" t="n">
-        <v>29.2840141783248</v>
+        <v>28.2506162576277</v>
       </c>
       <c r="C21" t="n">
-        <v>11.1812383116647</v>
+        <v>11.1392061066047</v>
       </c>
       <c r="D21" t="n">
-        <v>118673544.054619</v>
+        <v>142405036.290782</v>
       </c>
       <c r="E21" t="n">
-        <v>4411061.05437926</v>
+        <v>5338626.02881767</v>
       </c>
       <c r="F21" t="n">
         <v>0.638287420830793</v>
@@ -1417,16 +1417,16 @@
         <v>43</v>
       </c>
       <c r="B22" t="n">
-        <v>35.6439361713259</v>
+        <v>32.9472484319692</v>
       </c>
       <c r="C22" t="n">
-        <v>15.5605029321076</v>
+        <v>14.8065998745301</v>
       </c>
       <c r="D22" t="n">
-        <v>20873156.2310954</v>
+        <v>27062978.6331318</v>
       </c>
       <c r="E22" t="n">
-        <v>634344.039510793</v>
+        <v>832564.348882794</v>
       </c>
       <c r="F22" t="n">
         <v>0.101085946006253</v>
@@ -1498,22 +1498,22 @@
         <v>1110</v>
       </c>
       <c r="B2" t="n">
-        <v>28.8198227621542</v>
+        <v>28.7064507167594</v>
       </c>
       <c r="C2" t="n">
-        <v>8.02630650708829</v>
+        <v>7.86604257987292</v>
       </c>
       <c r="D2" t="n">
-        <v>60131334.4978623</v>
+        <v>64431263.4079626</v>
       </c>
       <c r="E2" t="n">
-        <v>2096538</v>
+        <v>2251756.3</v>
       </c>
       <c r="F2" t="n">
-        <v>0.321607642038927</v>
+        <v>0.354925351432155</v>
       </c>
       <c r="G2" t="n">
-        <v>8902</v>
+        <v>9677</v>
       </c>
     </row>
     <row r="3">
@@ -1521,22 +1521,22 @@
         <v>1121</v>
       </c>
       <c r="B3" t="n">
-        <v>40.0806920600998</v>
+        <v>38.5317139630737</v>
       </c>
       <c r="C3" t="n">
-        <v>15.3474362218011</v>
+        <v>14.4461019569852</v>
       </c>
       <c r="D3" t="n">
-        <v>23336521.3131654</v>
+        <v>26835335.0713531</v>
       </c>
       <c r="E3" t="n">
-        <v>583851.55</v>
+        <v>694346.45</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0599166530944272</v>
+        <v>0.0739789461505641</v>
       </c>
       <c r="G3" t="n">
-        <v>2084</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="4">
@@ -1544,22 +1544,22 @@
         <v>1122</v>
       </c>
       <c r="B4" t="n">
-        <v>29.4677367393906</v>
+        <v>27.6122016516946</v>
       </c>
       <c r="C4" t="n">
-        <v>18.1547701412634</v>
+        <v>17.6123621327966</v>
       </c>
       <c r="D4" t="n">
-        <v>88961997.3506543</v>
+        <v>128809220.438191</v>
       </c>
       <c r="E4" t="n">
-        <v>3146499.39691152</v>
+        <v>4796745.12763881</v>
       </c>
       <c r="F4" t="n">
-        <v>0.175213257187174</v>
+        <v>0.26468549721898</v>
       </c>
       <c r="G4" t="n">
-        <v>7118</v>
+        <v>10248</v>
       </c>
     </row>
     <row r="5">
@@ -1567,22 +1567,22 @@
         <v>1130</v>
       </c>
       <c r="B5" t="n">
-        <v>33.2949143686681</v>
+        <v>32.0663067709483</v>
       </c>
       <c r="C5" t="n">
-        <v>7.51772897684494</v>
+        <v>9.21922152479099</v>
       </c>
       <c r="D5" t="n">
-        <v>1206081.69654681</v>
+        <v>1609757.23956344</v>
       </c>
       <c r="E5" t="n">
-        <v>49782.4</v>
+        <v>62000.6444444444</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00320192877716397</v>
+        <v>0.004047976691631</v>
       </c>
       <c r="G5" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -1590,22 +1590,22 @@
         <v>1211</v>
       </c>
       <c r="B6" t="n">
-        <v>49.52134942635</v>
+        <v>49.0892838358124</v>
       </c>
       <c r="C6" t="n">
-        <v>34.6628161086949</v>
+        <v>33.6254184540376</v>
       </c>
       <c r="D6" t="n">
-        <v>6200973.00380464</v>
+        <v>7559280.49944327</v>
       </c>
       <c r="E6" t="n">
-        <v>133266.614285714</v>
+        <v>161766.414285714</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00823879292060417</v>
+        <v>0.0102620663369718</v>
       </c>
       <c r="G6" t="n">
-        <v>83</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
@@ -1613,22 +1613,22 @@
         <v>1212</v>
       </c>
       <c r="B7" t="n">
-        <v>32.8182460858944</v>
+        <v>38.31633628482</v>
       </c>
       <c r="C7" t="n">
-        <v>35.1516006221372</v>
+        <v>34.6285777111729</v>
       </c>
       <c r="D7" t="n">
-        <v>944175.010084435</v>
+        <v>1046219.28429631</v>
       </c>
       <c r="E7" t="n">
-        <v>29855.1</v>
+        <v>31673.1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00112229717836425</v>
+        <v>0.00126610523481151</v>
       </c>
       <c r="G7" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -1636,22 +1636,22 @@
         <v>1220</v>
       </c>
       <c r="B8" t="n">
-        <v>26.114604270222</v>
+        <v>25.2875668392216</v>
       </c>
       <c r="C8" t="n">
-        <v>7.55997304654169</v>
+        <v>9.22221031276834</v>
       </c>
       <c r="D8" t="n">
-        <v>438493.261585384</v>
+        <v>539030.311709924</v>
       </c>
       <c r="E8" t="n">
-        <v>29904.5</v>
+        <v>37094</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00271194708323828</v>
+        <v>0.00302110920479918</v>
       </c>
       <c r="G8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -1659,22 +1659,22 @@
         <v>1230</v>
       </c>
       <c r="B9" t="n">
-        <v>28.9802460652735</v>
+        <v>28.9126060096875</v>
       </c>
       <c r="C9" t="n">
-        <v>17.189076571828</v>
+        <v>17.9513265525667</v>
       </c>
       <c r="D9" t="n">
-        <v>4057665.11559481</v>
+        <v>4941441.67199912</v>
       </c>
       <c r="E9" t="n">
-        <v>181065.233333333</v>
+        <v>215419.019047619</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00940303962983673</v>
+        <v>0.01147146569338</v>
       </c>
       <c r="G9" t="n">
-        <v>126</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10">
@@ -1682,319 +1682,365 @@
         <v>1231</v>
       </c>
       <c r="B10" t="n">
-        <v>79.538279095376</v>
+        <v>62.6013991644882</v>
       </c>
       <c r="C10" t="n">
-        <v>79.2150127890189</v>
+        <v>218.169126857269</v>
       </c>
       <c r="D10" t="n">
-        <v>119943.724875827</v>
+        <v>258247.918845872</v>
       </c>
       <c r="E10" t="n">
-        <v>1508</v>
+        <v>4381.2</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0000903261449679823</v>
+        <v>0.00011030931237015</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B11" t="n">
-        <v>10.098606585745</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>16.8503078973421</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>181799.517763023</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7939.7</v>
+        <v>6542.4</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00107224996828645</v>
+        <v>0.00007789535744023</v>
       </c>
       <c r="G11" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1251</v>
+        <v>1242</v>
       </c>
       <c r="B12" t="n">
-        <v>17.6430901998764</v>
+        <v>11.0193244828042</v>
       </c>
       <c r="C12" t="n">
-        <v>14.6870934044153</v>
+        <v>15.2474453287519</v>
       </c>
       <c r="D12" t="n">
-        <v>1899058.06236059</v>
+        <v>206083.445032916</v>
       </c>
       <c r="E12" t="n">
-        <v>117619.75</v>
+        <v>9384.6</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00738021060218583</v>
+        <v>0.00211691775394746</v>
       </c>
       <c r="G12" t="n">
-        <v>119</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B13" t="n">
-        <v>24.7682565625176</v>
+        <v>17.6174737587732</v>
       </c>
       <c r="C13" t="n">
-        <v>12.8669861619339</v>
+        <v>17.8992337401292</v>
       </c>
       <c r="D13" t="n">
-        <v>158427.286510115</v>
+        <v>2941845.67297073</v>
       </c>
       <c r="E13" t="n">
-        <v>5219.3</v>
+        <v>179374.25</v>
       </c>
       <c r="F13" t="n">
-        <v>0.000798423355054522</v>
+        <v>0.0108797619578741</v>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="B14" t="n">
-        <v>7.35194823671415</v>
+        <v>15.46342172562</v>
       </c>
       <c r="C14" t="n">
-        <v>5.15848148177127</v>
+        <v>12.3498161019199</v>
       </c>
       <c r="D14" t="n">
-        <v>17050.6383505875</v>
+        <v>209427.129088246</v>
       </c>
       <c r="E14" t="n">
-        <v>2837.9</v>
+        <v>7543.5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.000826066418297495</v>
+        <v>0.00120219952703792</v>
       </c>
       <c r="G14" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>15.9041802300241</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>3.2001018718088</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>21143.7102334514</v>
       </c>
       <c r="E15" t="n">
-        <v>1440</v>
+        <v>20524</v>
       </c>
       <c r="F15" t="n">
-        <v>0.000187416802995241</v>
+        <v>0.0011666795464587</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B16" t="n">
-        <v>19.1113308771528</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>7.43851539529255</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>870262.034760306</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>29822.6</v>
+        <v>1440</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00145594604137466</v>
+        <v>0.000187416802995241</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B17" t="n">
-        <v>48.944462494413</v>
+        <v>27.9460442991873</v>
       </c>
       <c r="C17" t="n">
-        <v>94.6351522708875</v>
+        <v>8.72585985713085</v>
       </c>
       <c r="D17" t="n">
-        <v>201572.87433699</v>
+        <v>1324475.2285421</v>
       </c>
       <c r="E17" t="n">
-        <v>4118.4</v>
+        <v>42770.1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0000577589937128964</v>
+        <v>0.00244113012124018</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="B18" t="n">
-        <v>13.4148737435809</v>
+        <v>48.944462494413</v>
       </c>
       <c r="C18" t="n">
-        <v>21.7605417730707</v>
+        <v>94.6351522708875</v>
       </c>
       <c r="D18" t="n">
-        <v>181943.276103784</v>
+        <v>201572.87433699</v>
       </c>
       <c r="E18" t="n">
-        <v>6993.8</v>
+        <v>4118.4</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00129094595925029</v>
+        <v>0.000105508497660728</v>
       </c>
       <c r="G18" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="B19" t="n">
-        <v>33.5765398221878</v>
+        <v>12.5205488273422</v>
       </c>
       <c r="C19" t="n">
-        <v>27.5213258935998</v>
+        <v>18.6823424282264</v>
       </c>
       <c r="D19" t="n">
-        <v>552736.389561615</v>
+        <v>181943.276103784</v>
       </c>
       <c r="E19" t="n">
-        <v>22439.4</v>
+        <v>7387.6</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00223060542330443</v>
+        <v>0.00167637565766184</v>
       </c>
       <c r="G19" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>25.0459126343801</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.08352035829811</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>23117.3773615328</v>
       </c>
       <c r="E20" t="n">
-        <v>4147</v>
+        <v>923</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0000896735684140286</v>
+        <v>0.0000380324798944482</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B21" t="n">
-        <v>86.8990887607084</v>
+        <v>29.6966009576976</v>
       </c>
       <c r="C21" t="n">
-        <v>265.476716163964</v>
+        <v>24.1160827593602</v>
       </c>
       <c r="D21" t="n">
-        <v>26547.6716163964</v>
+        <v>675833.487485423</v>
       </c>
       <c r="E21" t="n">
-        <v>305.5</v>
+        <v>36395.1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00000795825065797201</v>
+        <v>0.00352474152691347</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>1276</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4147</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.000117527445716931</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1277</v>
+      </c>
+      <c r="B23" t="n">
+        <v>86.8990887607084</v>
+      </c>
+      <c r="C23" t="n">
+        <v>265.476716163964</v>
+      </c>
+      <c r="D23" t="n">
+        <v>26547.6716163964</v>
+      </c>
+      <c r="E23" t="n">
+        <v>305.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0000331063227371636</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>1278</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B24" t="n">
         <v>11.0911791341232</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C24" t="n">
         <v>17.2031066619171</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D24" t="n">
         <v>46327.2664364519</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E24" t="n">
         <v>6778.6</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.000663272681585539</v>
-      </c>
-      <c r="G22" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23"/>
-      <c r="B23" t="e">
+      <c r="F24" t="n">
+        <v>0.000796179367116494</v>
+      </c>
+      <c r="G24" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25"/>
+      <c r="B25" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="C23" t="e">
+      <c r="C25" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>466095</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.402433587880177</v>
-      </c>
-      <c r="G23" t="n">
-        <v>13020</v>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>282059</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.251867700359643</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8443</v>
       </c>
     </row>
   </sheetData>
@@ -2039,22 +2085,22 @@
         <v>46</v>
       </c>
       <c r="B2" t="n">
-        <v>32.1955446004091</v>
+        <v>30.3458773795632</v>
       </c>
       <c r="C2" t="n">
-        <v>16.0885171186636</v>
+        <v>15.6909331352494</v>
       </c>
       <c r="D2" t="n">
-        <v>50183238.2934312</v>
+        <v>65950022.7323923</v>
       </c>
       <c r="E2" t="n">
-        <v>1791062.01675659</v>
+        <v>2507817.27635052</v>
       </c>
       <c r="F2" t="n">
-        <v>0.118313915063254</v>
+        <v>0.162048740754363</v>
       </c>
       <c r="G2" t="n">
-        <v>3826</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="3">
@@ -2062,22 +2108,22 @@
         <v>47</v>
       </c>
       <c r="B3" t="n">
-        <v>49.9849604045709</v>
+        <v>48.2070250256631</v>
       </c>
       <c r="C3" t="n">
-        <v>18.85966919184</v>
+        <v>19.4588627620772</v>
       </c>
       <c r="D3" t="n">
-        <v>139349671.698543</v>
+        <v>175938090.250181</v>
       </c>
       <c r="E3" t="n">
-        <v>3076184.01316302</v>
+        <v>3991989.09158691</v>
       </c>
       <c r="F3" t="n">
-        <v>0.284128270831351</v>
+        <v>0.343985931801126</v>
       </c>
       <c r="G3" t="n">
-        <v>8686</v>
+        <v>10592</v>
       </c>
     </row>
     <row r="4">
@@ -2094,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1580490.71461095</v>
+        <v>2061172.93747916</v>
       </c>
       <c r="F4" t="n">
-        <v>0.180846059253383</v>
+        <v>0.218131955917145</v>
       </c>
       <c r="G4" t="n">
-        <v>5837</v>
+        <v>7004</v>
       </c>
     </row>
     <row r="5">
@@ -2115,13 +2161,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>480291</v>
+        <v>303896</v>
       </c>
       <c r="F5" t="n">
-        <v>0.416711754852012</v>
+        <v>0.275833371527366</v>
       </c>
       <c r="G5" t="n">
-        <v>13397</v>
+        <v>9075</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/BCVs/Emission_Summary_Tables_BCVs.xlsx
+++ b/scripts/BCVs/Emission_Summary_Tables_BCVs.xlsx
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">mortgage_type</t>
   </si>
   <si>
+    <t xml:space="preserve">mean_energy</t>
+  </si>
+  <si>
     <t xml:space="preserve">mean_emissions</t>
   </si>
   <si>
@@ -150,7 +153,37 @@
     <t xml:space="preserve">Usage propre et location</t>
   </si>
   <si>
-    <t xml:space="preserve">GKLAS</t>
+    <t xml:space="preserve">GKLAS_def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autres bâtiments dhébergement de tourisme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bâtiments commerciaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gares, aérogares, centraux téléphoniques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habitat communautaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hôtels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immeubles de bureaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immeubles à trois logements et plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maisons à deux logements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maisons à un logement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restaurants et bars dans des bâtiments sans usage résidentiel</t>
   </si>
   <si>
     <t xml:space="preserve">sia_energy_carrier</t>
@@ -516,50 +549,59 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
+        <v>159.044186016959</v>
+      </c>
+      <c r="C2" t="n">
         <v>31.1740425021298</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>25.073091608331</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>38552777.0359423</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1510697.9</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.118631745709344</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>2239</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
+        <v>164.603386709363</v>
+      </c>
+      <c r="C3" t="n">
         <v>29.2381584370371</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>11.7453521569918</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>203335335.946631</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>7354177.40541659</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.881368254290656</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>29502</v>
       </c>
     </row>
@@ -571,8 +613,8 @@
       <c r="C4" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="D4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -581,6 +623,9 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -600,13 +645,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -615,10 +660,10 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -626,10 +671,13 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>30342473</v>
@@ -638,27 +686,30 @@
         <v>16348881</v>
       </c>
       <c r="D2" t="n">
+        <v>194.140474680627</v>
+      </c>
+      <c r="E2" t="n">
         <v>11.2687899344813</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>17.2539414174961</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>205664.236123327</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>24434.7</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.00130108492975356</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>707059034</v>
@@ -667,27 +718,30 @@
         <v>68822806</v>
       </c>
       <c r="D3" t="n">
+        <v>206.460801545218</v>
+      </c>
+      <c r="E3" t="n">
         <v>50.0828325016397</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>13.1181587400697</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>970773.99508996</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>23066.3</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.0054770914113298</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>598108000</v>
@@ -696,27 +750,30 @@
         <v>46473250</v>
       </c>
       <c r="D4" t="n">
+        <v>158.482995827563</v>
+      </c>
+      <c r="E4" t="n">
         <v>44.9757661422805</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>10.0568192586575</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>174525.267952163</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>4169.1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.00369845772390598</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>2035761253</v>
@@ -725,27 +782,30 @@
         <v>833695520</v>
       </c>
       <c r="D5" t="n">
+        <v>161.746165782685</v>
+      </c>
+      <c r="E5" t="n">
         <v>31.6406325220289</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>17.2376669353606</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>14526843.630946</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>537533.1</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.0663475792058832</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>649</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>431775624</v>
@@ -754,27 +814,30 @@
         <v>205553175</v>
       </c>
       <c r="D6" t="n">
+        <v>204.335567595632</v>
+      </c>
+      <c r="E6" t="n">
         <v>42.1094867534904</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>24.976480564223</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>8740977.32116545</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>220328.3</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0.0163584369019199</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>298</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>923791780</v>
@@ -783,27 +846,30 @@
         <v>495380702</v>
       </c>
       <c r="D7" t="n">
+        <v>226.30447961907</v>
+      </c>
+      <c r="E7" t="n">
         <v>42.5259682285672</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>22.8622725065021</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>13998001.0597892</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>377700.05</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.0394236379763814</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>634</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>9905712480</v>
@@ -812,27 +878,30 @@
         <v>5568329881</v>
       </c>
       <c r="D8" t="n">
+        <v>191.394153023246</v>
+      </c>
+      <c r="E8" t="n">
         <v>29.9835147791031</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>8.54865250436664</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>77001506.2120405</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>2653582.76666667</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.443141649392734</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>12602</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>9128747409</v>
@@ -841,27 +910,30 @@
         <v>5244528442</v>
       </c>
       <c r="D9" t="n">
+        <v>136.226072317055</v>
+      </c>
+      <c r="E9" t="n">
         <v>27.8980917926342</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>16.4361182164937</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>125587174.914315</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>5007661.18874992</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.417372719242994</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>16930</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>239750584</v>
@@ -870,21 +942,24 @@
         <v>86442907</v>
       </c>
       <c r="D10" t="n">
+        <v>216.380809373937</v>
+      </c>
+      <c r="E10" t="n">
         <v>31.5915156989681</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>55.2356405976494</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>682646.345151352</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>16399.8</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0.00687934321509763</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>485</v>
       </c>
     </row>
@@ -902,8 +977,8 @@
       <c r="E11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -912,6 +987,9 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -931,7 +1009,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -951,401 +1029,455 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="n">
+        <v>146.265766781155</v>
+      </c>
+      <c r="C2" t="n">
         <v>30.6887468485958</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>28.6841193078395</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>997123.177363236</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>34399.2</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.0017355094391759</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="n">
+        <v>46.1314165408927</v>
+      </c>
+      <c r="C3" t="n">
         <v>8.49545133007669</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>1.48912741787484</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>7359.33907468279</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>946.4</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.000280236586224392</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="n">
+        <v>33.296770541083</v>
+      </c>
+      <c r="C4" t="n">
         <v>10.0449697287979</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.0706069500638886</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>1034.63188206618</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>103</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.000604898674261794</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="n">
+        <v>82.3231559448399</v>
+      </c>
+      <c r="C5" t="n">
         <v>18.1018079911063</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>16.206558219174</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>421097.377243524</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>28103.3</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.00372044135677604</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="n">
+        <v>183.334145055393</v>
+      </c>
+      <c r="C6" t="n">
         <v>43.3021765398428</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>20.4499759720562</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>1770987.29589545</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>49771.6</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.00648497234248935</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
+        <v>206.37285861255</v>
+      </c>
+      <c r="C7" t="n">
         <v>51.2223443255266</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>30.1455220976286</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>5456101.58734928</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>135325.1</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.0134484198626081</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="n">
+        <v>153.919106408154</v>
+      </c>
+      <c r="C8" t="n">
         <v>30.2215928566037</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>18.128896826546</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>27448312.8680792</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>910585.972945463</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.0854670601859905</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>2082</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="n">
+        <v>195.183347105523</v>
+      </c>
+      <c r="C9" t="n">
         <v>13.3820189364948</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>20.5360322637661</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>298061.638840485</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>22122</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.00215836870041204</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>199</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="n">
+        <v>113.766210595207</v>
+      </c>
+      <c r="C10" t="n">
         <v>18.1887627204545</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>27.8982954281741</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>1076504.24605677</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>72591.2</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.00212057194390208</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="n">
+        <v>137.826663509315</v>
+      </c>
+      <c r="C11" t="n">
         <v>25.7168533412269</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>54.329941010399</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>618159.472828936</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>34457.7</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.000856936313434755</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="n">
+        <v>130.538088637078</v>
+      </c>
+      <c r="C12" t="n">
         <v>28.4023259652032</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>26.0600005364141</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>2710933.77721458</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>140137.4</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.00679600942790526</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>189</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="n">
+        <v>138.932589546954</v>
+      </c>
+      <c r="C13" t="n">
         <v>29.5451621329431</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>71.4125103676426</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>10132710.5243827</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>443751.3</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.0124423634399944</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>442</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="n">
+        <v>201.354101755597</v>
+      </c>
+      <c r="C14" t="n">
         <v>44.9162241720794</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>14.7063941580209</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>1098781.87966982</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>25291.6807692308</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.00407522637854394</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" t="n">
+        <v>211.182253142585</v>
+      </c>
+      <c r="C15" t="n">
         <v>30.5387316556469</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>11.8984611765817</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>16771354.7684286</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>624182.920631397</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.0861006532879897</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>3859</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" t="n">
+        <v>194.536087107556</v>
+      </c>
+      <c r="C16" t="n">
         <v>32.2576913596962</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>18.5197941868849</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>2722515.2392099</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>97871.0533700377</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.00900548179616995</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>317</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" t="n">
+        <v>161.536752930104</v>
+      </c>
+      <c r="C17" t="n">
         <v>34.8337853739805</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>3.05361105551128</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>23512.8051274368</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1082</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.00115533108102043</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" t="n">
+        <v>122.548077826582</v>
+      </c>
+      <c r="C18" t="n">
         <v>24.4165750326919</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>2.20603989970534</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>591363.685278656</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>59502</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.0147015011814703</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" t="e">
         <v>#NUM!</v>
@@ -1353,85 +1485,97 @@
       <c r="C19" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>360</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.000289680323950181</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" t="n">
+        <v>137.682454381611</v>
+      </c>
+      <c r="C20" t="n">
         <v>24.5337195904257</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>2.31060572419714</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>274183.744733165</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>13101.1</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>0.00918297084063439</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" t="n">
+        <v>157.90813492483</v>
+      </c>
+      <c r="C21" t="n">
         <v>28.2506162576277</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>11.1392061066047</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>142405036.290782</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>5338626.02881767</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>0.638287420830793</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>20425</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" t="n">
+        <v>169.289860268812</v>
+      </c>
+      <c r="C22" t="n">
         <v>32.9472484319692</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>14.8065998745301</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>27062978.6331318</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>832564.348882794</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.101085946006253</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>3498</v>
       </c>
     </row>
@@ -1443,8 +1587,8 @@
       <c r="C23" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="D23" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1453,6 +1597,9 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1472,7 +1619,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1492,555 +1639,292 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1110</v>
+      <c r="A2" t="s">
+        <v>46</v>
       </c>
       <c r="B2" t="n">
+        <v>215.222912708867</v>
+      </c>
+      <c r="C2" t="n">
+        <v>38.31633628482</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.6285777111729</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1046219.28429631</v>
+      </c>
+      <c r="F2" t="n">
+        <v>31673.1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00126610523481151</v>
+      </c>
+      <c r="H2" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="n">
+        <v>148.049156194728</v>
+      </c>
+      <c r="C3" t="n">
+        <v>28.9126060096875</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.9513265525667</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4941441.67199912</v>
+      </c>
+      <c r="F3" t="n">
+        <v>215419.019047619</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.01147146569338</v>
+      </c>
+      <c r="H3" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="n">
+        <v>182.367327579904</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6542.4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00007789535744023</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="n">
+        <v>143.216312987247</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32.0663067709483</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.21922152479099</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1609757.23956344</v>
+      </c>
+      <c r="F5" t="n">
+        <v>62000.6444444444</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.004047976691631</v>
+      </c>
+      <c r="H5" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="n">
+        <v>186.96488741845</v>
+      </c>
+      <c r="C6" t="n">
+        <v>49.0892838358124</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33.6254184540376</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7559280.49944327</v>
+      </c>
+      <c r="F6" t="n">
+        <v>161766.414285714</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0102620663369718</v>
+      </c>
+      <c r="H6" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="n">
+        <v>167.469217512088</v>
+      </c>
+      <c r="C7" t="n">
+        <v>25.2875668392216</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.22221031276834</v>
+      </c>
+      <c r="E7" t="n">
+        <v>539030.311709924</v>
+      </c>
+      <c r="F7" t="n">
+        <v>37094</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.00302110920479918</v>
+      </c>
+      <c r="H7" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="n">
+        <v>127.840811292708</v>
+      </c>
+      <c r="C8" t="n">
+        <v>27.6122016516946</v>
+      </c>
+      <c r="D8" t="n">
+        <v>17.6123621327966</v>
+      </c>
+      <c r="E8" t="n">
+        <v>128809220.438191</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4796745.12763881</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.26468549721898</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10248</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="n">
+        <v>229.345328863906</v>
+      </c>
+      <c r="C9" t="n">
+        <v>38.5317139630737</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.4461019569852</v>
+      </c>
+      <c r="E9" t="n">
+        <v>26835335.0713531</v>
+      </c>
+      <c r="F9" t="n">
+        <v>694346.45</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0739789461505641</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="n">
+        <v>186.794778232292</v>
+      </c>
+      <c r="C10" t="n">
         <v>28.7064507167594</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D10" t="n">
         <v>7.86604257987292</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E10" t="n">
         <v>64431263.4079626</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F10" t="n">
         <v>2251756.3</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G10" t="n">
         <v>0.354925351432155</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H10" t="n">
         <v>9677</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1121</v>
-      </c>
-      <c r="B3" t="n">
-        <v>38.5317139630737</v>
-      </c>
-      <c r="C3" t="n">
-        <v>14.4461019569852</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26835335.0713531</v>
-      </c>
-      <c r="E3" t="n">
-        <v>694346.45</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0739789461505641</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2492</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1122</v>
-      </c>
-      <c r="B4" t="n">
-        <v>27.6122016516946</v>
-      </c>
-      <c r="C4" t="n">
-        <v>17.6123621327966</v>
-      </c>
-      <c r="D4" t="n">
-        <v>128809220.438191</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4796745.12763881</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.26468549721898</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10248</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1130</v>
-      </c>
-      <c r="B5" t="n">
-        <v>32.0663067709483</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.21922152479099</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1609757.23956344</v>
-      </c>
-      <c r="E5" t="n">
-        <v>62000.6444444444</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.004047976691631</v>
-      </c>
-      <c r="G5" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1211</v>
-      </c>
-      <c r="B6" t="n">
-        <v>49.0892838358124</v>
-      </c>
-      <c r="C6" t="n">
-        <v>33.6254184540376</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7559280.49944327</v>
-      </c>
-      <c r="E6" t="n">
-        <v>161766.414285714</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0102620663369718</v>
-      </c>
-      <c r="G6" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1212</v>
-      </c>
-      <c r="B7" t="n">
-        <v>38.31633628482</v>
-      </c>
-      <c r="C7" t="n">
-        <v>34.6285777111729</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1046219.28429631</v>
-      </c>
-      <c r="E7" t="n">
-        <v>31673.1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.00126610523481151</v>
-      </c>
-      <c r="G7" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1220</v>
-      </c>
-      <c r="B8" t="n">
-        <v>25.2875668392216</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9.22221031276834</v>
-      </c>
-      <c r="D8" t="n">
-        <v>539030.311709924</v>
-      </c>
-      <c r="E8" t="n">
-        <v>37094</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.00302110920479918</v>
-      </c>
-      <c r="G8" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1230</v>
-      </c>
-      <c r="B9" t="n">
-        <v>28.9126060096875</v>
-      </c>
-      <c r="C9" t="n">
-        <v>17.9513265525667</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4941441.67199912</v>
-      </c>
-      <c r="E9" t="n">
-        <v>215419.019047619</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.01147146569338</v>
-      </c>
-      <c r="G9" t="n">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1231</v>
-      </c>
-      <c r="B10" t="n">
+    <row r="11">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="n">
+        <v>224.189398274539</v>
+      </c>
+      <c r="C11" t="n">
         <v>62.6013991644882</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D11" t="n">
         <v>218.169126857269</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E11" t="n">
         <v>258247.918845872</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F11" t="n">
         <v>4381.2</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G11" t="n">
         <v>0.00011030931237015</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H11" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1241</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6542.4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.00007789535744023</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2</v>
-      </c>
-    </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1242</v>
-      </c>
+      <c r="A12"/>
       <c r="B12" t="n">
-        <v>11.0193244828042</v>
+        <v>139.619815990163</v>
       </c>
       <c r="C12" t="n">
-        <v>15.2474453287519</v>
+        <v>19.3688918984698</v>
       </c>
       <c r="D12" t="n">
-        <v>206083.445032916</v>
+        <v>16.1576300489658</v>
       </c>
       <c r="E12" t="n">
-        <v>9384.6</v>
+        <v>5858317.13920802</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00211691775394746</v>
+        <v>603150.65</v>
       </c>
       <c r="G12" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1251</v>
-      </c>
-      <c r="B13" t="n">
-        <v>17.6174737587732</v>
-      </c>
-      <c r="C13" t="n">
-        <v>17.8992337401292</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2941845.67297073</v>
-      </c>
-      <c r="E13" t="n">
-        <v>179374.25</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.0108797619578741</v>
-      </c>
-      <c r="G13" t="n">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1252</v>
-      </c>
-      <c r="B14" t="n">
-        <v>15.46342172562</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12.3498161019199</v>
-      </c>
-      <c r="D14" t="n">
-        <v>209427.129088246</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7543.5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.00120219952703792</v>
-      </c>
-      <c r="G14" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1261</v>
-      </c>
-      <c r="B15" t="n">
-        <v>15.9041802300241</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.2001018718088</v>
-      </c>
-      <c r="D15" t="n">
-        <v>21143.7102334514</v>
-      </c>
-      <c r="E15" t="n">
-        <v>20524</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.0011666795464587</v>
-      </c>
-      <c r="G15" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1263</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1440</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.000187416802995241</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1264</v>
-      </c>
-      <c r="B17" t="n">
-        <v>27.9460442991873</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8.72585985713085</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1324475.2285421</v>
-      </c>
-      <c r="E17" t="n">
-        <v>42770.1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.00244113012124018</v>
-      </c>
-      <c r="G17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1265</v>
-      </c>
-      <c r="B18" t="n">
-        <v>48.944462494413</v>
-      </c>
-      <c r="C18" t="n">
-        <v>94.6351522708875</v>
-      </c>
-      <c r="D18" t="n">
-        <v>201572.87433699</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4118.4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.000105508497660728</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1271</v>
-      </c>
-      <c r="B19" t="n">
-        <v>12.5205488273422</v>
-      </c>
-      <c r="C19" t="n">
-        <v>18.6823424282264</v>
-      </c>
-      <c r="D19" t="n">
-        <v>181943.276103784</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7387.6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.00167637565766184</v>
-      </c>
-      <c r="G19" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1272</v>
-      </c>
-      <c r="B20" t="n">
-        <v>25.0459126343801</v>
-      </c>
-      <c r="C20" t="n">
-        <v>6.08352035829811</v>
-      </c>
-      <c r="D20" t="n">
-        <v>23117.3773615328</v>
-      </c>
-      <c r="E20" t="n">
-        <v>923</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0000380324798944482</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1274</v>
-      </c>
-      <c r="B21" t="n">
-        <v>29.6966009576976</v>
-      </c>
-      <c r="C21" t="n">
-        <v>24.1160827593602</v>
-      </c>
-      <c r="D21" t="n">
-        <v>675833.487485423</v>
-      </c>
-      <c r="E21" t="n">
-        <v>36395.1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.00352474152691347</v>
-      </c>
-      <c r="G21" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1276</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4147</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.000117527445716931</v>
-      </c>
-      <c r="G22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1277</v>
-      </c>
-      <c r="B23" t="n">
-        <v>86.8990887607084</v>
-      </c>
-      <c r="C23" t="n">
-        <v>265.476716163964</v>
-      </c>
-      <c r="D23" t="n">
-        <v>26547.6716163964</v>
-      </c>
-      <c r="E23" t="n">
-        <v>305.5</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.0000331063227371636</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1278</v>
-      </c>
-      <c r="B24" t="n">
-        <v>11.0911791341232</v>
-      </c>
-      <c r="C24" t="n">
-        <v>17.2031066619171</v>
-      </c>
-      <c r="D24" t="n">
-        <v>46327.2664364519</v>
-      </c>
-      <c r="E24" t="n">
-        <v>6778.6</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.000796179367116494</v>
-      </c>
-      <c r="G24" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25"/>
-      <c r="B25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>282059</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.251867700359643</v>
-      </c>
-      <c r="G25" t="n">
-        <v>8443</v>
+        <v>0.276153277366897</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8933</v>
       </c>
     </row>
   </sheetData>
@@ -2059,7 +1943,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2079,59 +1963,68 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B2" t="n">
+        <v>138.520046054559</v>
+      </c>
+      <c r="C2" t="n">
         <v>30.3458773795632</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>15.6909331352494</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>65950022.7323923</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>2507817.27635052</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.162048740754363</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>5075</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B3" t="n">
+        <v>163.003065570188</v>
+      </c>
+      <c r="C3" t="n">
         <v>48.2070250256631</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>19.4588627620772</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>175938090.250181</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>3991989.09158691</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.343985931801126</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>10592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.203238265799</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2140,12 +2033,15 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>2061172.93747916</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.218131955917145</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>7004</v>
       </c>
     </row>
@@ -2157,16 +2053,19 @@
       <c r="C5" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>303896</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.275833371527366</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>9075</v>
       </c>
     </row>
